--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H2">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N2">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P2">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q2">
-        <v>63.31992986317156</v>
+        <v>86.47242411488276</v>
       </c>
       <c r="R2">
-        <v>63.31992986317156</v>
+        <v>778.2518170339449</v>
       </c>
       <c r="S2">
-        <v>0.002145267236601757</v>
+        <v>0.002774387158701674</v>
       </c>
       <c r="T2">
-        <v>0.002145267236601757</v>
+        <v>0.002774387158701675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H3">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N3">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O3">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P3">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q3">
-        <v>132.9115580352307</v>
+        <v>177.8961052233527</v>
       </c>
       <c r="R3">
-        <v>132.9115580352307</v>
+        <v>1601.064947010175</v>
       </c>
       <c r="S3">
-        <v>0.004503018424606825</v>
+        <v>0.005707630784803758</v>
       </c>
       <c r="T3">
-        <v>0.004503018424606825</v>
+        <v>0.005707630784803759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H4">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N4">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O4">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P4">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q4">
-        <v>20.79673208141565</v>
+        <v>30.84151121830555</v>
       </c>
       <c r="R4">
-        <v>20.79673208141565</v>
+        <v>277.57360096475</v>
       </c>
       <c r="S4">
-        <v>0.0007045893458671468</v>
+        <v>0.0009895211514521858</v>
       </c>
       <c r="T4">
-        <v>0.0007045893458671468</v>
+        <v>0.000989521151452186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H5">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N5">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O5">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P5">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q5">
-        <v>294.257690478606</v>
+        <v>412.1533302140277</v>
       </c>
       <c r="R5">
-        <v>294.257690478606</v>
+        <v>3709.379971926249</v>
       </c>
       <c r="S5">
-        <v>0.009969394847182412</v>
+        <v>0.0132235555839486</v>
       </c>
       <c r="T5">
-        <v>0.009969394847182412</v>
+        <v>0.0132235555839486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H6">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N6">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O6">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P6">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q6">
-        <v>3068.396257528232</v>
+        <v>3156.100667557258</v>
       </c>
       <c r="R6">
-        <v>3068.396257528232</v>
+        <v>28404.90600801532</v>
       </c>
       <c r="S6">
-        <v>0.103956684323735</v>
+        <v>0.1012605492822492</v>
       </c>
       <c r="T6">
-        <v>0.103956684323735</v>
+        <v>0.1012605492822492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H7">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N7">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P7">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q7">
-        <v>6440.710344102095</v>
+        <v>6492.91403818327</v>
       </c>
       <c r="R7">
-        <v>6440.710344102095</v>
+        <v>58436.22634364943</v>
       </c>
       <c r="S7">
-        <v>0.2182100471605322</v>
+        <v>0.2083190972668608</v>
       </c>
       <c r="T7">
-        <v>0.2182100471605322</v>
+        <v>0.2083190972668608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H8">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N8">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O8">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P8">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q8">
-        <v>1007.780883922743</v>
+        <v>1125.6642234899</v>
       </c>
       <c r="R8">
-        <v>1007.780883922743</v>
+        <v>10130.9780114091</v>
       </c>
       <c r="S8">
-        <v>0.03414342556324384</v>
+        <v>0.03611588779460118</v>
       </c>
       <c r="T8">
-        <v>0.03414342556324384</v>
+        <v>0.03611588779460118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H9">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.1180211475334</v>
+        <v>89.42491666666666</v>
       </c>
       <c r="N9">
-        <v>85.1180211475334</v>
+        <v>268.27475</v>
       </c>
       <c r="O9">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855819</v>
       </c>
       <c r="P9">
-        <v>0.5755247396017068</v>
+        <v>0.5826613975855818</v>
       </c>
       <c r="Q9">
-        <v>14259.32085150025</v>
+        <v>15042.9158652505</v>
       </c>
       <c r="R9">
-        <v>14259.32085150025</v>
+        <v>135386.2427872545</v>
       </c>
       <c r="S9">
-        <v>0.4831030910018063</v>
+        <v>0.4826379395879304</v>
       </c>
       <c r="T9">
-        <v>0.4831030910018063</v>
+        <v>0.4826379395879303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H10">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.3161470491648</v>
+        <v>18.76192366666666</v>
       </c>
       <c r="N10">
-        <v>18.3161470491648</v>
+        <v>56.285771</v>
       </c>
       <c r="O10">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="P10">
-        <v>0.1238444646487487</v>
+        <v>0.1222461152048115</v>
       </c>
       <c r="Q10">
-        <v>523.6898532670795</v>
+        <v>3.053009012760111</v>
       </c>
       <c r="R10">
-        <v>523.6898532670795</v>
+        <v>27.477081114841</v>
       </c>
       <c r="S10">
-        <v>0.01774251308841194</v>
+        <v>9.795294959175684E-05</v>
       </c>
       <c r="T10">
-        <v>0.01774251308841194</v>
+        <v>9.795294959175684E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H11">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.4464677514245</v>
+        <v>38.59812166666666</v>
       </c>
       <c r="N11">
-        <v>38.4464677514245</v>
+        <v>115.794365</v>
       </c>
       <c r="O11">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="P11">
-        <v>0.2599554482462873</v>
+        <v>0.2514918252404857</v>
       </c>
       <c r="Q11">
-        <v>1099.250022471243</v>
+        <v>6.280827884046111</v>
       </c>
       <c r="R11">
-        <v>1099.250022471243</v>
+        <v>56.527450956415</v>
       </c>
       <c r="S11">
-        <v>0.03724238266114824</v>
+        <v>0.0002015145106185806</v>
       </c>
       <c r="T11">
-        <v>0.03724238266114824</v>
+        <v>0.0002015145106185806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H12">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.01573633717561</v>
+        <v>6.691683333333334</v>
       </c>
       <c r="N12">
-        <v>6.01573633717561</v>
+        <v>20.07505</v>
       </c>
       <c r="O12">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="P12">
-        <v>0.04067534750325723</v>
+        <v>0.04360066196912097</v>
       </c>
       <c r="Q12">
-        <v>172.0001521746129</v>
+        <v>1.088895248172222</v>
       </c>
       <c r="R12">
-        <v>172.0001521746129</v>
+        <v>9.800057233550001</v>
       </c>
       <c r="S12">
-        <v>0.005827332594146242</v>
+        <v>3.493618948032174E-05</v>
       </c>
       <c r="T12">
-        <v>0.005827332594146242</v>
+        <v>3.493618948032174E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1627236666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.488171</v>
+      </c>
+      <c r="I13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="J13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="N13">
+        <v>268.27475</v>
+      </c>
+      <c r="O13">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="P13">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="Q13">
+        <v>14.55155033136111</v>
+      </c>
+      <c r="R13">
+        <v>130.96395298225</v>
+      </c>
+      <c r="S13">
+        <v>0.0004668729342535109</v>
+      </c>
+      <c r="T13">
+        <v>0.0004668729342535108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H14">
+        <v>90.271417</v>
+      </c>
+      <c r="I14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.76192366666666</v>
+      </c>
+      <c r="N14">
+        <v>56.285771</v>
+      </c>
+      <c r="O14">
+        <v>0.1222461152048115</v>
+      </c>
+      <c r="P14">
+        <v>0.1222461152048115</v>
+      </c>
+      <c r="Q14">
+        <v>564.5551450119452</v>
+      </c>
+      <c r="R14">
+        <v>5080.996305107506</v>
+      </c>
+      <c r="S14">
+        <v>0.0181132258142689</v>
+      </c>
+      <c r="T14">
+        <v>0.0181132258142689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H15">
+        <v>90.271417</v>
+      </c>
+      <c r="I15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>38.59812166666666</v>
+      </c>
+      <c r="N15">
+        <v>115.794365</v>
+      </c>
+      <c r="O15">
+        <v>0.2514918252404857</v>
+      </c>
+      <c r="P15">
+        <v>0.2514918252404857</v>
+      </c>
+      <c r="Q15">
+        <v>1161.435712129467</v>
+      </c>
+      <c r="R15">
+        <v>10452.9214091652</v>
+      </c>
+      <c r="S15">
+        <v>0.03726358267820254</v>
+      </c>
+      <c r="T15">
+        <v>0.03726358267820254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="H13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="I13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="J13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>85.1180211475334</v>
-      </c>
-      <c r="N13">
-        <v>85.1180211475334</v>
-      </c>
-      <c r="O13">
-        <v>0.5755247396017068</v>
-      </c>
-      <c r="P13">
-        <v>0.5755247396017068</v>
-      </c>
-      <c r="Q13">
-        <v>2433.669258359035</v>
-      </c>
-      <c r="R13">
-        <v>2433.669258359035</v>
-      </c>
-      <c r="S13">
-        <v>0.08245225375271811</v>
-      </c>
-      <c r="T13">
-        <v>0.08245225375271811</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H16">
+        <v>90.271417</v>
+      </c>
+      <c r="I16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.691683333333334</v>
+      </c>
+      <c r="N16">
+        <v>20.07505</v>
+      </c>
+      <c r="O16">
+        <v>0.04360066196912097</v>
+      </c>
+      <c r="P16">
+        <v>0.04360066196912097</v>
+      </c>
+      <c r="Q16">
+        <v>201.3559122050945</v>
+      </c>
+      <c r="R16">
+        <v>1812.20320984585</v>
+      </c>
+      <c r="S16">
+        <v>0.006460316833587281</v>
+      </c>
+      <c r="T16">
+        <v>0.006460316833587281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H17">
+        <v>90.271417</v>
+      </c>
+      <c r="I17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>89.42491666666666</v>
+      </c>
+      <c r="N17">
+        <v>268.27475</v>
+      </c>
+      <c r="O17">
+        <v>0.5826613975855819</v>
+      </c>
+      <c r="P17">
+        <v>0.5826613975855818</v>
+      </c>
+      <c r="Q17">
+        <v>2690.837980868972</v>
+      </c>
+      <c r="R17">
+        <v>24217.54182782075</v>
+      </c>
+      <c r="S17">
+        <v>0.08633302947944935</v>
+      </c>
+      <c r="T17">
+        <v>0.08633302947944932</v>
       </c>
     </row>
   </sheetData>
